--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2388686666666667</v>
+        <v>0.2219423333333333</v>
       </c>
       <c r="H2">
-        <v>0.7166060000000001</v>
+        <v>0.6658269999999999</v>
       </c>
       <c r="I2">
-        <v>0.01233282798877973</v>
+        <v>0.01170735863810222</v>
       </c>
       <c r="J2">
-        <v>0.01233282798877973</v>
+        <v>0.01170735863810222</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>22.64471400856867</v>
+        <v>39.25163296405378</v>
       </c>
       <c r="R2">
-        <v>203.802426077118</v>
+        <v>353.264696676484</v>
       </c>
       <c r="S2">
-        <v>0.002074336741423594</v>
+        <v>0.003125526058864854</v>
       </c>
       <c r="T2">
-        <v>0.002074336741423594</v>
+        <v>0.003125526058864854</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2388686666666667</v>
+        <v>0.2219423333333333</v>
       </c>
       <c r="H3">
-        <v>0.7166060000000001</v>
+        <v>0.6658269999999999</v>
       </c>
       <c r="I3">
-        <v>0.01233282798877973</v>
+        <v>0.01170735863810222</v>
       </c>
       <c r="J3">
-        <v>0.01233282798877973</v>
+        <v>0.01170735863810222</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>34.78915811170311</v>
+        <v>32.32398386008622</v>
       </c>
       <c r="R3">
-        <v>313.102423005328</v>
+        <v>290.915854740776</v>
       </c>
       <c r="S3">
-        <v>0.003186811228748294</v>
+        <v>0.002573891740339774</v>
       </c>
       <c r="T3">
-        <v>0.003186811228748295</v>
+        <v>0.002573891740339774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2388686666666667</v>
+        <v>0.2219423333333333</v>
       </c>
       <c r="H4">
-        <v>0.7166060000000001</v>
+        <v>0.6658269999999999</v>
       </c>
       <c r="I4">
-        <v>0.01233282798877973</v>
+        <v>0.01170735863810222</v>
       </c>
       <c r="J4">
-        <v>0.01233282798877973</v>
+        <v>0.01170735863810222</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>17.38389907851911</v>
+        <v>18.64872971179778</v>
       </c>
       <c r="R4">
-        <v>156.455091706672</v>
+        <v>167.83856740618</v>
       </c>
       <c r="S4">
-        <v>0.001592427290277412</v>
+        <v>0.001484959638044356</v>
       </c>
       <c r="T4">
-        <v>0.001592427290277412</v>
+        <v>0.001484959638044356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2388686666666667</v>
+        <v>0.2219423333333333</v>
       </c>
       <c r="H5">
-        <v>0.7166060000000001</v>
+        <v>0.6658269999999999</v>
       </c>
       <c r="I5">
-        <v>0.01233282798877973</v>
+        <v>0.01170735863810222</v>
       </c>
       <c r="J5">
-        <v>0.01233282798877973</v>
+        <v>0.01170735863810222</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>27.66956499456112</v>
+        <v>18.84929063860323</v>
       </c>
       <c r="R5">
-        <v>249.02608495105</v>
+        <v>169.643615747429</v>
       </c>
       <c r="S5">
-        <v>0.002534631051896166</v>
+        <v>0.001500929888344377</v>
       </c>
       <c r="T5">
-        <v>0.002534631051896166</v>
+        <v>0.001500929888344377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2388686666666667</v>
+        <v>0.2219423333333333</v>
       </c>
       <c r="H6">
-        <v>0.7166060000000001</v>
+        <v>0.6658269999999999</v>
       </c>
       <c r="I6">
-        <v>0.01233282798877973</v>
+        <v>0.01170735863810222</v>
       </c>
       <c r="J6">
-        <v>0.01233282798877973</v>
+        <v>0.01170735863810222</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>13.89902387630533</v>
+        <v>14.19787825830189</v>
       </c>
       <c r="R6">
-        <v>125.091214886748</v>
+        <v>127.780904324717</v>
       </c>
       <c r="S6">
-        <v>0.00127320026588255</v>
+        <v>0.001130547575372271</v>
       </c>
       <c r="T6">
-        <v>0.00127320026588255</v>
+        <v>0.001130547575372271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2388686666666667</v>
+        <v>0.2219423333333333</v>
       </c>
       <c r="H7">
-        <v>0.7166060000000001</v>
+        <v>0.6658269999999999</v>
       </c>
       <c r="I7">
-        <v>0.01233282798877973</v>
+        <v>0.01170735863810222</v>
       </c>
       <c r="J7">
-        <v>0.01233282798877973</v>
+        <v>0.01170735863810222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>18.24624665509556</v>
+        <v>23.75427657358455</v>
       </c>
       <c r="R7">
-        <v>164.21621989586</v>
+        <v>213.788489162261</v>
       </c>
       <c r="S7">
-        <v>0.001671421410551717</v>
+        <v>0.001891503737136589</v>
       </c>
       <c r="T7">
-        <v>0.001671421410551717</v>
+        <v>0.001891503737136589</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>50.731314</v>
       </c>
       <c r="I8">
-        <v>0.8730886557003056</v>
+        <v>0.8920180274758701</v>
       </c>
       <c r="J8">
-        <v>0.8730886557003056</v>
+        <v>0.8920180274758701</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>1603.107002744738</v>
+        <v>2990.697158439299</v>
       </c>
       <c r="R8">
-        <v>14427.96302470264</v>
+        <v>26916.27442595369</v>
       </c>
       <c r="S8">
-        <v>0.1468503313827921</v>
+        <v>0.2381430069784725</v>
       </c>
       <c r="T8">
-        <v>0.1468503313827922</v>
+        <v>0.2381430069784725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>50.731314</v>
       </c>
       <c r="I9">
-        <v>0.8730886557003056</v>
+        <v>0.8920180274758701</v>
       </c>
       <c r="J9">
-        <v>0.8730886557003056</v>
+        <v>0.8920180274758701</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>2462.859233610181</v>
@@ -1013,10 +1013,10 @@
         <v>22165.73310249163</v>
       </c>
       <c r="S9">
-        <v>0.2256067087135128</v>
+        <v>0.1961123686500901</v>
       </c>
       <c r="T9">
-        <v>0.2256067087135128</v>
+        <v>0.1961123686500901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>50.731314</v>
       </c>
       <c r="I10">
-        <v>0.8730886557003056</v>
+        <v>0.8920180274758701</v>
       </c>
       <c r="J10">
-        <v>0.8730886557003056</v>
+        <v>0.8920180274758701</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>1230.673539848485</v>
+        <v>1420.901469466307</v>
       </c>
       <c r="R10">
-        <v>11076.06185863637</v>
+        <v>12788.11322519676</v>
       </c>
       <c r="S10">
-        <v>0.1127340950051109</v>
+        <v>0.1131434346683967</v>
       </c>
       <c r="T10">
-        <v>0.1127340950051109</v>
+        <v>0.1131434346683967</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>50.731314</v>
       </c>
       <c r="I11">
-        <v>0.8730886557003056</v>
+        <v>0.8920180274758701</v>
       </c>
       <c r="J11">
-        <v>0.8730886557003056</v>
+        <v>0.8920180274758701</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>1958.835664203884</v>
+        <v>1436.182795327076</v>
       </c>
       <c r="R11">
-        <v>17629.52097783495</v>
+        <v>12925.64515794368</v>
       </c>
       <c r="S11">
-        <v>0.1794363482414251</v>
+        <v>0.1143602549274565</v>
       </c>
       <c r="T11">
-        <v>0.1794363482414251</v>
+        <v>0.1143602549274565</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>50.731314</v>
       </c>
       <c r="I12">
-        <v>0.8730886557003056</v>
+        <v>0.8920180274758701</v>
       </c>
       <c r="J12">
-        <v>0.8730886557003056</v>
+        <v>0.8920180274758701</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>983.965728116068</v>
+        <v>1081.7780295117</v>
       </c>
       <c r="R12">
-        <v>8855.691553044613</v>
+        <v>9736.002265605295</v>
       </c>
       <c r="S12">
-        <v>0.09013477765099809</v>
+        <v>0.08613973905856827</v>
       </c>
       <c r="T12">
-        <v>0.0901347776509981</v>
+        <v>0.08613973905856827</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>50.731314</v>
       </c>
       <c r="I13">
-        <v>0.8730886557003056</v>
+        <v>0.8920180274758701</v>
       </c>
       <c r="J13">
-        <v>0.8730886557003056</v>
+        <v>0.8920180274758701</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>1291.722464479927</v>
+        <v>1809.908074766212</v>
       </c>
       <c r="R13">
-        <v>11625.50218031934</v>
+        <v>16289.17267289591</v>
       </c>
       <c r="S13">
-        <v>0.1183263947064664</v>
+        <v>0.1441192231928861</v>
       </c>
       <c r="T13">
-        <v>0.1183263947064664</v>
+        <v>0.1441192231928861</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.219216666666667</v>
+        <v>1.825126666666667</v>
       </c>
       <c r="H14">
-        <v>6.65765</v>
+        <v>5.475379999999999</v>
       </c>
       <c r="I14">
-        <v>0.1145785163109148</v>
+        <v>0.09627461388602765</v>
       </c>
       <c r="J14">
-        <v>0.1145785163109148</v>
+        <v>0.09627461388602765</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>210.3814093367166</v>
+        <v>322.7829542789955</v>
       </c>
       <c r="R14">
-        <v>1893.43268403045</v>
+        <v>2905.04658851096</v>
       </c>
       <c r="S14">
-        <v>0.01927168905442989</v>
+        <v>0.02570253665319586</v>
       </c>
       <c r="T14">
-        <v>0.0192716890544299</v>
+        <v>0.02570253665319586</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.219216666666667</v>
+        <v>1.825126666666667</v>
       </c>
       <c r="H15">
-        <v>6.65765</v>
+        <v>5.475379999999999</v>
       </c>
       <c r="I15">
-        <v>0.1145785163109148</v>
+        <v>0.09627461388602765</v>
       </c>
       <c r="J15">
-        <v>0.1145785163109148</v>
+        <v>0.09627461388602765</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>323.2097393859111</v>
+        <v>265.8139347726044</v>
       </c>
       <c r="R15">
-        <v>2908.8876544732</v>
+        <v>2392.32541295344</v>
       </c>
       <c r="S15">
-        <v>0.02960716736543662</v>
+        <v>0.02116621187969486</v>
       </c>
       <c r="T15">
-        <v>0.02960716736543663</v>
+        <v>0.02116621187969486</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.219216666666667</v>
+        <v>1.825126666666667</v>
       </c>
       <c r="H16">
-        <v>6.65765</v>
+        <v>5.475379999999999</v>
       </c>
       <c r="I16">
-        <v>0.1145785163109148</v>
+        <v>0.09627461388602765</v>
       </c>
       <c r="J16">
-        <v>0.1145785163109148</v>
+        <v>0.09627461388602765</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>161.5056470363111</v>
+        <v>153.3564750143556</v>
       </c>
       <c r="R16">
-        <v>1453.5508233268</v>
+        <v>1380.2082751292</v>
       </c>
       <c r="S16">
-        <v>0.01479449453272148</v>
+        <v>0.01221145778551381</v>
       </c>
       <c r="T16">
-        <v>0.01479449453272148</v>
+        <v>0.01221145778551381</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.219216666666667</v>
+        <v>1.825126666666667</v>
       </c>
       <c r="H17">
-        <v>6.65765</v>
+        <v>5.475379999999999</v>
       </c>
       <c r="I17">
-        <v>0.1145785163109148</v>
+        <v>0.09627461388602765</v>
       </c>
       <c r="J17">
-        <v>0.1145785163109148</v>
+        <v>0.09627461388602765</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>257.0649413848611</v>
+        <v>155.0057732365845</v>
       </c>
       <c r="R17">
-        <v>2313.58447246375</v>
+        <v>1395.05195912926</v>
       </c>
       <c r="S17">
-        <v>0.02354806744941642</v>
+        <v>0.01234278797952477</v>
       </c>
       <c r="T17">
-        <v>0.02354806744941643</v>
+        <v>0.01234278797952477</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.219216666666667</v>
+        <v>1.825126666666667</v>
       </c>
       <c r="H18">
-        <v>6.65765</v>
+        <v>5.475379999999999</v>
       </c>
       <c r="I18">
-        <v>0.1145785163109148</v>
+        <v>0.09627461388602765</v>
       </c>
       <c r="J18">
-        <v>0.1145785163109148</v>
+        <v>0.09627461388602765</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>129.1293071926333</v>
+        <v>116.7552211879978</v>
       </c>
       <c r="R18">
-        <v>1162.1637647337</v>
+        <v>1050.79699069198</v>
       </c>
       <c r="S18">
-        <v>0.01182870608137939</v>
+        <v>0.009296975916028972</v>
       </c>
       <c r="T18">
-        <v>0.01182870608137939</v>
+        <v>0.009296975916028972</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.219216666666667</v>
+        <v>1.825126666666667</v>
       </c>
       <c r="H19">
-        <v>6.65765</v>
+        <v>5.475379999999999</v>
       </c>
       <c r="I19">
-        <v>0.1145785163109148</v>
+        <v>0.09627461388602765</v>
       </c>
       <c r="J19">
-        <v>0.1145785163109148</v>
+        <v>0.09627461388602765</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>169.5173136190556</v>
+        <v>195.3415690043711</v>
       </c>
       <c r="R19">
-        <v>1525.6558225715</v>
+        <v>1758.07412103934</v>
       </c>
       <c r="S19">
-        <v>0.01552839182753094</v>
+        <v>0.01555464367206938</v>
       </c>
       <c r="T19">
-        <v>0.01552839182753094</v>
+        <v>0.01555464367206938</v>
       </c>
     </row>
   </sheetData>
